--- a/Project_V/Assets/ExcelFiles/namelist.xlsx
+++ b/Project_V/Assets/ExcelFiles/namelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94668AE3-8B47-4D76-8F67-80BC307E2D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EAFEC-61FA-4E4C-9D9D-B3F7FDF2EA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -812,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,9 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1209,7 +1206,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1334,7 +1331,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1345,7 +1342,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1356,7 +1353,7 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1367,7 +1364,7 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1378,7 +1375,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1389,7 +1386,7 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1400,7 +1397,7 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1411,7 +1408,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1422,7 +1419,7 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1433,7 +1430,7 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1444,7 +1441,7 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1455,7 +1452,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">

--- a/Project_V/Assets/ExcelFiles/namelist.xlsx
+++ b/Project_V/Assets/ExcelFiles/namelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EAFEC-61FA-4E4C-9D9D-B3F7FDF2EA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC38DE-EF60-4C71-824D-8808AD3E8977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="namelist" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SecondName</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Adelaide</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -198,6 +194,10 @@
   </si>
   <si>
     <t>Harris</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastName</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1255,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1266,10 +1266,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1277,10 +1277,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1288,10 +1288,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1299,10 +1299,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1310,10 +1310,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1332,10 +1332,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1343,10 +1343,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1354,10 +1354,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1365,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1376,10 +1376,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1387,10 +1387,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1398,10 +1398,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1409,10 +1409,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1420,10 +1420,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1431,10 +1431,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1442,10 +1442,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1453,10 +1453,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/namelist.xlsx
+++ b/Project_V/Assets/ExcelFiles/namelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC38DE-EF60-4C71-824D-8808AD3E8977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4359471A-0849-47BA-AC22-28460DBA6D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="14800" yWindow="1800" windowWidth="26890" windowHeight="15670" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="namelist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Index</t>
   </si>
@@ -29,175 +29,242 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Adelaide</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agnes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beatrice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clementine</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cora</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dorothy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edith</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hazel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penelope</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Theodora</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Winifred</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abraham</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benedict</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caleb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edwin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elias</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gilbert</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ives</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maxwell</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rufus</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spencer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smith</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jones</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Williams</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taylor</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Davies</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evans</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wilson</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thomas</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Roberts</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robinson</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thompson</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wright</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walker</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>White</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edwards</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hughes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hall</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lewis</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harris</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LastName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>애들레이드</t>
+  </si>
+  <si>
+    <t>아그네스</t>
+  </si>
+  <si>
+    <t>베아트리체</t>
+  </si>
+  <si>
+    <t>클레멘타인</t>
+  </si>
+  <si>
+    <t>코라</t>
+  </si>
+  <si>
+    <t>도로시</t>
+  </si>
+  <si>
+    <t>이디스</t>
+  </si>
+  <si>
+    <t>헤이즐</t>
+  </si>
+  <si>
+    <t>페넬로페</t>
+  </si>
+  <si>
+    <t>테오도라</t>
+  </si>
+  <si>
+    <t>위니프레드</t>
+  </si>
+  <si>
+    <t>아브라함</t>
+  </si>
+  <si>
+    <t>베네딕토</t>
+  </si>
+  <si>
+    <t>갈렙</t>
+  </si>
+  <si>
+    <t>에드윈</t>
+  </si>
+  <si>
+    <t>길버트</t>
+  </si>
+  <si>
+    <t>맥스웰</t>
+  </si>
+  <si>
+    <t>스미스</t>
+  </si>
+  <si>
+    <t>존스</t>
+  </si>
+  <si>
+    <t>윌리엄스</t>
+  </si>
+  <si>
+    <t>테일러</t>
+  </si>
+  <si>
+    <t>갈색</t>
+  </si>
+  <si>
+    <t>데이비스</t>
+  </si>
+  <si>
+    <t>에반스</t>
+  </si>
+  <si>
+    <t>윌슨</t>
+  </si>
+  <si>
+    <t>로버츠</t>
+  </si>
+  <si>
+    <t>로빈슨</t>
+  </si>
+  <si>
+    <t>톰슨</t>
+  </si>
+  <si>
+    <t>장인</t>
+  </si>
+  <si>
+    <t>워커</t>
+  </si>
+  <si>
+    <t>에드워즈</t>
+  </si>
+  <si>
+    <t>휴즈</t>
+  </si>
+  <si>
+    <t>초록의</t>
+  </si>
+  <si>
+    <t>현관</t>
+  </si>
+  <si>
+    <t>루이스</t>
+  </si>
+  <si>
+    <t>해리스</t>
+  </si>
+  <si>
+    <t>토마스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼드윈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>라자니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>애틀리</t>
+  </si>
+  <si>
+    <t>클레멘트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이킨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>얀손</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파커</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잉글랜드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로스티스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀브룩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배드콕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙웰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어니스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스웰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>조지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제임스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>톰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아서</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랭크</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해롤드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에드먼드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>존</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨런</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤드류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파운드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>커닝햄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰스</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -812,21 +879,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1203,21 +1267,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="39.25" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,242 +1289,386 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_V/Assets/ExcelFiles/namelist.xlsx
+++ b/Project_V/Assets/ExcelFiles/namelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4359471A-0849-47BA-AC22-28460DBA6D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEB541-9819-467F-8B45-BD709ED6E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="1800" windowWidth="26890" windowHeight="15670" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="namelist" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,9 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>애들레이드</t>
-  </si>
-  <si>
     <t>아그네스</t>
   </si>
   <si>
-    <t>베아트리체</t>
-  </si>
-  <si>
     <t>클레멘타인</t>
   </si>
   <si>
@@ -57,24 +51,12 @@
     <t>헤이즐</t>
   </si>
   <si>
-    <t>페넬로페</t>
-  </si>
-  <si>
     <t>테오도라</t>
   </si>
   <si>
     <t>위니프레드</t>
   </si>
   <si>
-    <t>아브라함</t>
-  </si>
-  <si>
-    <t>베네딕토</t>
-  </si>
-  <si>
-    <t>갈렙</t>
-  </si>
-  <si>
     <t>에드윈</t>
   </si>
   <si>
@@ -96,9 +78,6 @@
     <t>테일러</t>
   </si>
   <si>
-    <t>갈색</t>
-  </si>
-  <si>
     <t>데이비스</t>
   </si>
   <si>
@@ -117,9 +96,6 @@
     <t>톰슨</t>
   </si>
   <si>
-    <t>장인</t>
-  </si>
-  <si>
     <t>워커</t>
   </si>
   <si>
@@ -129,12 +105,6 @@
     <t>휴즈</t>
   </si>
   <si>
-    <t>초록의</t>
-  </si>
-  <si>
-    <t>현관</t>
-  </si>
-  <si>
     <t>루이스</t>
   </si>
   <si>
@@ -265,6 +235,46 @@
   </si>
   <si>
     <t>찰스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아델라이데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>베아트리스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>페넬로피</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이브러햄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>베네딕트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>케일럽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라운</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,9 +897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,19 +1276,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.58203125" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="39.25" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,378 +1299,378 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
+      <c r="B34" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
